--- a/tester-1.0.xlsx
+++ b/tester-1.0.xlsx
@@ -334,7 +334,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -855,9 +855,9 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -896,8 +896,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -943,7 +943,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -951,16 +951,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1001,36 +991,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1436,7 +1396,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1663,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="L6" s="19">
-        <f t="shared" ref="L6:L17" si="4">A6*$C$1</f>
+        <f t="shared" ref="L6:L13" si="4">A6*$C$1</f>
         <v>3</v>
       </c>
       <c r="M6" s="9">
@@ -2210,7 +2170,7 @@
         <v>75</v>
       </c>
       <c r="H14" s="25">
-        <v>8529949</v>
+        <v>8529922</v>
       </c>
       <c r="I14" s="12">
         <v>0.10299999999999999</v>
@@ -2246,7 +2206,7 @@
       </c>
       <c r="U14" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>8529949,10</v>
+        <v>8529922,10</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -2272,13 +2232,13 @@
         <v>76</v>
       </c>
       <c r="H15" s="25">
-        <v>8529922</v>
+        <v>8529949</v>
       </c>
       <c r="I15" s="12">
         <v>0.15</v>
       </c>
       <c r="L15" s="19">
-        <f t="shared" ref="L15:L18" si="9">A15*$C$1</f>
+        <f t="shared" ref="L15:L17" si="9">A15*$C$1</f>
         <v>18</v>
       </c>
       <c r="M15" s="9">
@@ -2308,7 +2268,7 @@
       </c>
       <c r="U15" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>8529922,20</v>
+        <v>8529949,20</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2723,7 +2683,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q4:Q7 Q9:Q15 Q17:Q22">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="lessThan">
       <formula>$M4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2731,12 +2691,12 @@
     <cfRule type="containsBlanks" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(K4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="lessThan">
       <formula>$I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
       <formula>$M16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2744,12 +2704,12 @@
     <cfRule type="containsBlanks" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(K16))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
       <formula>$I16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>$M8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2757,7 +2717,7 @@
     <cfRule type="containsBlanks" priority="23" stopIfTrue="1">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="lessThan">
       <formula>$I8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2765,7 +2725,7 @@
     <cfRule type="containsBlanks" priority="25" stopIfTrue="1">
       <formula>LEN(TRIM(K8))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
